--- a/data/pca/factorExposure/factorExposure_2018-01-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0005576982856803391</v>
+        <v>-0.005871714248823096</v>
       </c>
       <c r="C2">
-        <v>-0.005077029492596083</v>
+        <v>0.02934765867685364</v>
       </c>
       <c r="D2">
-        <v>0.02218072493685413</v>
+        <v>-0.02692647601091451</v>
       </c>
       <c r="E2">
-        <v>0.04713606096329572</v>
+        <v>0.01072087252746635</v>
       </c>
       <c r="F2">
-        <v>-0.04549790913250325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03917164828491521</v>
+      </c>
+      <c r="G2">
+        <v>-0.008685594164539831</v>
+      </c>
+      <c r="H2">
+        <v>-0.02362653154361059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.06476343388900904</v>
+        <v>-0.05829865163276715</v>
       </c>
       <c r="C3">
-        <v>0.003536692225795584</v>
+        <v>0.0924913723037884</v>
       </c>
       <c r="D3">
-        <v>-0.02348228225717443</v>
+        <v>-0.009961311354181969</v>
       </c>
       <c r="E3">
-        <v>0.1902866109161202</v>
+        <v>0.0542995220787305</v>
       </c>
       <c r="F3">
-        <v>-0.207126975271178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.1227559154082755</v>
+      </c>
+      <c r="G3">
+        <v>0.02527958046742794</v>
+      </c>
+      <c r="H3">
+        <v>-0.06931842306718707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03096156741836212</v>
+        <v>-0.03540030086354071</v>
       </c>
       <c r="C4">
-        <v>0.01624262189683008</v>
+        <v>0.05825017938408961</v>
       </c>
       <c r="D4">
-        <v>0.03288805792615015</v>
+        <v>-0.02046886164807193</v>
       </c>
       <c r="E4">
-        <v>0.004376615148419066</v>
+        <v>-0.003872689774792732</v>
       </c>
       <c r="F4">
-        <v>-0.05139624073200584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.03785317614230786</v>
+      </c>
+      <c r="G4">
+        <v>0.03076845997713855</v>
+      </c>
+      <c r="H4">
+        <v>0.004094614624281566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04928946076937103</v>
+        <v>-0.02286768950209978</v>
       </c>
       <c r="C6">
-        <v>0.005266850580085703</v>
+        <v>0.05685964026098201</v>
       </c>
       <c r="D6">
-        <v>0.04283327683499863</v>
+        <v>-0.01451637768716401</v>
       </c>
       <c r="E6">
-        <v>0.003965960781267228</v>
+        <v>-0.003566379916586306</v>
       </c>
       <c r="F6">
-        <v>-0.03875121353132335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01905384207203847</v>
+      </c>
+      <c r="G6">
+        <v>0.01489736869282142</v>
+      </c>
+      <c r="H6">
+        <v>-0.002362914977660373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02221864300706868</v>
+        <v>-0.004684151503770921</v>
       </c>
       <c r="C7">
-        <v>0.07044914417183151</v>
+        <v>0.03098512504263918</v>
       </c>
       <c r="D7">
-        <v>0.005129529961628637</v>
+        <v>-0.01222451351553468</v>
       </c>
       <c r="E7">
-        <v>0.006550298908739535</v>
+        <v>-0.01735641265920716</v>
       </c>
       <c r="F7">
-        <v>-0.0136797279206494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.0223227850060741</v>
+      </c>
+      <c r="G7">
+        <v>0.06570065194804495</v>
+      </c>
+      <c r="H7">
+        <v>-0.03600052659202219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0139640360572275</v>
+        <v>0.006423897526814375</v>
       </c>
       <c r="C8">
-        <v>0.009810241087683814</v>
+        <v>0.004221470267596587</v>
       </c>
       <c r="D8">
-        <v>0.0228224030561935</v>
+        <v>-0.002046904265347474</v>
       </c>
       <c r="E8">
-        <v>0.007617953238550404</v>
+        <v>0.004688287954141978</v>
       </c>
       <c r="F8">
-        <v>-0.0500022457577214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.03092221583867496</v>
+      </c>
+      <c r="G8">
+        <v>0.01607608740739833</v>
+      </c>
+      <c r="H8">
+        <v>0.001181021690076932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0255387710785713</v>
+        <v>-0.01524243492717774</v>
       </c>
       <c r="C9">
-        <v>0.01300497945541668</v>
+        <v>0.03920812087868177</v>
       </c>
       <c r="D9">
-        <v>0.03175960291948711</v>
+        <v>-0.01454201778797186</v>
       </c>
       <c r="E9">
-        <v>0.03381028770503473</v>
+        <v>-0.001574750506528486</v>
       </c>
       <c r="F9">
-        <v>-0.05148157759972356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02452520711464179</v>
+      </c>
+      <c r="G9">
+        <v>0.0192944245538911</v>
+      </c>
+      <c r="H9">
+        <v>-0.01906634717731538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05511573019605207</v>
+        <v>-0.1129321025149841</v>
       </c>
       <c r="C10">
-        <v>-0.006103832254399073</v>
+        <v>-0.1696463760795067</v>
       </c>
       <c r="D10">
-        <v>-0.158314582718841</v>
+        <v>0.02095376780797512</v>
       </c>
       <c r="E10">
-        <v>0.05725085109814795</v>
+        <v>0.0251526649451503</v>
       </c>
       <c r="F10">
-        <v>0.01143294779536277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.001158086156264476</v>
+      </c>
+      <c r="G10">
+        <v>0.02097882144672064</v>
+      </c>
+      <c r="H10">
+        <v>-0.04039511367161139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02598595003341958</v>
+        <v>-0.02153810229764526</v>
       </c>
       <c r="C11">
-        <v>-0.002897753112476088</v>
+        <v>0.05140583524124517</v>
       </c>
       <c r="D11">
-        <v>0.04379706353180748</v>
+        <v>-6.492676325820048e-05</v>
       </c>
       <c r="E11">
-        <v>-0.004141264011014299</v>
+        <v>-0.008075274991227776</v>
       </c>
       <c r="F11">
-        <v>-0.02194247353594161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03558196052560503</v>
+      </c>
+      <c r="G11">
+        <v>-0.00458865017564756</v>
+      </c>
+      <c r="H11">
+        <v>-0.01317569788825592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03360953967558968</v>
+        <v>-0.02404548620992442</v>
       </c>
       <c r="C12">
-        <v>0.002782784481006075</v>
+        <v>0.04571496645187579</v>
       </c>
       <c r="D12">
-        <v>0.03912319515171374</v>
+        <v>-0.004179640395951074</v>
       </c>
       <c r="E12">
-        <v>-0.01863896652102148</v>
+        <v>-0.01284327844522445</v>
       </c>
       <c r="F12">
-        <v>-0.003978956217213535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01613655169759632</v>
+      </c>
+      <c r="G12">
+        <v>0.009144379793715057</v>
+      </c>
+      <c r="H12">
+        <v>-0.008707130599225257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01331755610397839</v>
+        <v>-0.008104603485674093</v>
       </c>
       <c r="C13">
-        <v>-0.00200526039259838</v>
+        <v>0.02798017431619388</v>
       </c>
       <c r="D13">
-        <v>0.007148357753102369</v>
+        <v>-0.02281282524095692</v>
       </c>
       <c r="E13">
-        <v>0.02345516624459424</v>
+        <v>0.01420028202300504</v>
       </c>
       <c r="F13">
-        <v>-0.04968493720364484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.05796847300957226</v>
+      </c>
+      <c r="G13">
+        <v>0.006980003336511451</v>
+      </c>
+      <c r="H13">
+        <v>-0.01524420805340164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01089256930130342</v>
+        <v>-0.003174979062220619</v>
       </c>
       <c r="C14">
-        <v>0.01526722025909832</v>
+        <v>0.01964126207766134</v>
       </c>
       <c r="D14">
-        <v>0.007495799207082437</v>
+        <v>-0.00768726319324284</v>
       </c>
       <c r="E14">
-        <v>0.004886836001964717</v>
+        <v>-0.006296727406614603</v>
       </c>
       <c r="F14">
-        <v>-0.04473948576873021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02095183118291086</v>
+      </c>
+      <c r="G14">
+        <v>0.02879191995106177</v>
+      </c>
+      <c r="H14">
+        <v>-0.00556278311270388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0224033409348763</v>
+        <v>-0.0198149538745258</v>
       </c>
       <c r="C16">
-        <v>0.002301069614952113</v>
+        <v>0.04111488459032345</v>
       </c>
       <c r="D16">
-        <v>0.0418015578060641</v>
+        <v>0.0001086985800380346</v>
       </c>
       <c r="E16">
-        <v>-0.001583283900886169</v>
+        <v>-0.006046726991890935</v>
       </c>
       <c r="F16">
-        <v>-0.02127639017633767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02468921588384962</v>
+      </c>
+      <c r="G16">
+        <v>0.004875217919771355</v>
+      </c>
+      <c r="H16">
+        <v>-0.01023756658663653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02509161341773482</v>
+        <v>-0.02142825889969448</v>
       </c>
       <c r="C19">
-        <v>0.0004975495853330567</v>
+        <v>0.04903100468588745</v>
       </c>
       <c r="D19">
-        <v>0.03268088805410078</v>
+        <v>-0.01243903082037877</v>
       </c>
       <c r="E19">
-        <v>0.01227639301651419</v>
+        <v>0.0185417466801315</v>
       </c>
       <c r="F19">
-        <v>-0.07831762466824532</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.06593104051144814</v>
+      </c>
+      <c r="G19">
+        <v>0.01712183391105811</v>
+      </c>
+      <c r="H19">
+        <v>-0.005363740037427774</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001374270002101161</v>
+        <v>-0.003530210606201567</v>
       </c>
       <c r="C20">
-        <v>0.005103537944467257</v>
+        <v>0.02676227996792913</v>
       </c>
       <c r="D20">
-        <v>0.002035817040603973</v>
+        <v>-0.01177762953045904</v>
       </c>
       <c r="E20">
-        <v>0.02311196553740432</v>
+        <v>0.01436949866470153</v>
       </c>
       <c r="F20">
-        <v>-0.0278869242227938</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02928597698411469</v>
+      </c>
+      <c r="G20">
+        <v>0.01381431183614823</v>
+      </c>
+      <c r="H20">
+        <v>-0.00991152398847274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02957936829591204</v>
+        <v>-0.005254568129038751</v>
       </c>
       <c r="C21">
-        <v>0.02202051995328121</v>
+        <v>0.02978212288636533</v>
       </c>
       <c r="D21">
-        <v>0.02173407057911463</v>
+        <v>-0.01478175148001766</v>
       </c>
       <c r="E21">
-        <v>0.007155386653057517</v>
+        <v>0.01375585810086864</v>
       </c>
       <c r="F21">
-        <v>-0.03584396303518281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.04809058844995868</v>
+      </c>
+      <c r="G21">
+        <v>0.03085964784956713</v>
+      </c>
+      <c r="H21">
+        <v>-0.02451311335499468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0229856727142347</v>
+        <v>-0.01463951877516448</v>
       </c>
       <c r="C24">
-        <v>0.0001964227856168901</v>
+        <v>0.04283143218181262</v>
       </c>
       <c r="D24">
-        <v>0.03293376933152493</v>
+        <v>-0.005071910773009042</v>
       </c>
       <c r="E24">
-        <v>-0.0009420797645481699</v>
+        <v>-0.01076708071741953</v>
       </c>
       <c r="F24">
-        <v>-0.01620967461137507</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02660683738259258</v>
+      </c>
+      <c r="G24">
+        <v>-0.0007593231326147279</v>
+      </c>
+      <c r="H24">
+        <v>-0.01694656074663949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03460393643363691</v>
+        <v>-0.03077689573556912</v>
       </c>
       <c r="C25">
-        <v>-0.001009777470243119</v>
+        <v>0.05191707021579913</v>
       </c>
       <c r="D25">
-        <v>0.03448942354187787</v>
+        <v>-0.008514284063638201</v>
       </c>
       <c r="E25">
-        <v>0.007904317553410563</v>
+        <v>-0.01697536323970732</v>
       </c>
       <c r="F25">
-        <v>-0.03017720810532425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02652281826608199</v>
+      </c>
+      <c r="G25">
+        <v>0.008637830209800109</v>
+      </c>
+      <c r="H25">
+        <v>-0.007793773835375274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.003728977010692084</v>
+        <v>-0.0002638387174034913</v>
       </c>
       <c r="C26">
-        <v>0.00810143039343887</v>
+        <v>0.004875757677683105</v>
       </c>
       <c r="D26">
-        <v>0.01136724930075687</v>
+        <v>-0.02332236098867657</v>
       </c>
       <c r="E26">
-        <v>0.03234394537591077</v>
+        <v>-0.001736472428288767</v>
       </c>
       <c r="F26">
-        <v>-0.02882937440978019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01487084958514891</v>
+      </c>
+      <c r="G26">
+        <v>0.01668871295528842</v>
+      </c>
+      <c r="H26">
+        <v>-0.01177035271450635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.001267537635305395</v>
+        <v>-0.0008403142982759445</v>
       </c>
       <c r="C27">
-        <v>0.0002149835363816936</v>
+        <v>-0.0008062655283848665</v>
       </c>
       <c r="D27">
-        <v>-0.006131115738427844</v>
+        <v>0.0006951052845798706</v>
       </c>
       <c r="E27">
-        <v>-0.01068937187567015</v>
+        <v>0.0007934293948404902</v>
       </c>
       <c r="F27">
-        <v>-0.01799414493234352</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.002389739830978441</v>
+      </c>
+      <c r="G27">
+        <v>0.004395792307221057</v>
+      </c>
+      <c r="H27">
+        <v>0.009208452278155109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.09725073991558518</v>
+        <v>-0.15331335655209</v>
       </c>
       <c r="C28">
-        <v>-0.01112584180847851</v>
+        <v>-0.2058482847328893</v>
       </c>
       <c r="D28">
-        <v>-0.2284628908456857</v>
+        <v>0.01408299062706325</v>
       </c>
       <c r="E28">
-        <v>0.06752144569449979</v>
+        <v>0.01914288038909701</v>
       </c>
       <c r="F28">
-        <v>0.02065924530441536</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.007743159675883603</v>
+      </c>
+      <c r="G28">
+        <v>0.03310298705658204</v>
+      </c>
+      <c r="H28">
+        <v>-0.0409644383032858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01115981489887722</v>
+        <v>-0.00750831490216212</v>
       </c>
       <c r="C29">
-        <v>0.01099858108660546</v>
+        <v>0.01691785272558029</v>
       </c>
       <c r="D29">
-        <v>0.00698509471061633</v>
+        <v>-0.006568194310414652</v>
       </c>
       <c r="E29">
-        <v>0.00174355075923644</v>
+        <v>-0.0058477543138456</v>
       </c>
       <c r="F29">
-        <v>-0.04566259693621477</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.0139168625470235</v>
+      </c>
+      <c r="G29">
+        <v>0.02634637808249833</v>
+      </c>
+      <c r="H29">
+        <v>0.002697223730936724</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03487781195826348</v>
+        <v>-0.03223938917660098</v>
       </c>
       <c r="C30">
-        <v>-0.04824774689044114</v>
+        <v>0.08054133516189607</v>
       </c>
       <c r="D30">
-        <v>0.05632522976521182</v>
+        <v>-0.02383378115938626</v>
       </c>
       <c r="E30">
-        <v>0.01383080078840934</v>
+        <v>0.0005621206706368003</v>
       </c>
       <c r="F30">
-        <v>-0.08849968515269739</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.05208486349164881</v>
+      </c>
+      <c r="G30">
+        <v>-0.02108903907457406</v>
+      </c>
+      <c r="H30">
+        <v>0.02281031412872118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04215009381432638</v>
+        <v>-0.03221377258576734</v>
       </c>
       <c r="C31">
-        <v>0.01090005073951394</v>
+        <v>0.02090070435622525</v>
       </c>
       <c r="D31">
-        <v>0.01691352057534638</v>
+        <v>-0.001431102583004627</v>
       </c>
       <c r="E31">
-        <v>-0.007051340217348072</v>
+        <v>-0.008588947189879941</v>
       </c>
       <c r="F31">
-        <v>-0.02829984533203411</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01246904033541113</v>
+      </c>
+      <c r="G31">
+        <v>0.02435229331136731</v>
+      </c>
+      <c r="H31">
+        <v>-0.004117231476959697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.004331700897799572</v>
+        <v>-0.001301424747448313</v>
       </c>
       <c r="C32">
-        <v>0.02789825400377753</v>
+        <v>0.02887024076159158</v>
       </c>
       <c r="D32">
-        <v>0.0248795630971027</v>
+        <v>0.006338863572160573</v>
       </c>
       <c r="E32">
-        <v>-0.007806845978445021</v>
+        <v>5.305088873374673e-05</v>
       </c>
       <c r="F32">
-        <v>-0.05742794696262158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.1053017584121345</v>
+      </c>
+      <c r="G32">
+        <v>0.02487561390604843</v>
+      </c>
+      <c r="H32">
+        <v>-0.002973236173104353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02935265200330006</v>
+        <v>-0.01936768825041651</v>
       </c>
       <c r="C33">
-        <v>-0.018920927699508</v>
+        <v>0.049369764772907</v>
       </c>
       <c r="D33">
-        <v>0.03702149811237807</v>
+        <v>-0.01214695431885597</v>
       </c>
       <c r="E33">
-        <v>0.02280916085755648</v>
+        <v>0.00906578335254367</v>
       </c>
       <c r="F33">
-        <v>-0.04558974048847548</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.03290814120188004</v>
+      </c>
+      <c r="G33">
+        <v>-0.002504675718176858</v>
+      </c>
+      <c r="H33">
+        <v>-0.02171920074466903</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02362788524348505</v>
+        <v>-0.02986419376099075</v>
       </c>
       <c r="C34">
-        <v>0.01005349276874129</v>
+        <v>0.05418836676240218</v>
       </c>
       <c r="D34">
-        <v>0.04224191907159677</v>
+        <v>0.007512686886612706</v>
       </c>
       <c r="E34">
-        <v>-0.004077504429756818</v>
+        <v>-0.0206979558973182</v>
       </c>
       <c r="F34">
-        <v>-0.02564280175290838</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02836385746739396</v>
+      </c>
+      <c r="G34">
+        <v>0.01261100567624286</v>
+      </c>
+      <c r="H34">
+        <v>-0.01264939154734017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01090127549282395</v>
+        <v>-0.006183725760130232</v>
       </c>
       <c r="C36">
-        <v>0.005618769400334233</v>
+        <v>4.504671871815983e-05</v>
       </c>
       <c r="D36">
-        <v>0.003871240590139096</v>
+        <v>-0.01039489107086874</v>
       </c>
       <c r="E36">
-        <v>0.01059190090221561</v>
+        <v>0.0001397042987266158</v>
       </c>
       <c r="F36">
-        <v>-0.02307042258898986</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.007328683740551122</v>
+      </c>
+      <c r="G36">
+        <v>0.01039335701772324</v>
+      </c>
+      <c r="H36">
+        <v>-0.01107912616691556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01449993776013921</v>
+        <v>-0.02352149085525919</v>
       </c>
       <c r="C38">
-        <v>-0.003421554748922486</v>
+        <v>0.01783436447611307</v>
       </c>
       <c r="D38">
-        <v>0.002235077378834436</v>
+        <v>0.009365916823975801</v>
       </c>
       <c r="E38">
-        <v>0.03113344330880946</v>
+        <v>-0.002736423474692785</v>
       </c>
       <c r="F38">
-        <v>-0.03895902593012487</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01745922558648353</v>
+      </c>
+      <c r="G38">
+        <v>0.01299696895151708</v>
+      </c>
+      <c r="H38">
+        <v>-0.006262605866038779</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01718190918639715</v>
+        <v>-0.01091585884220468</v>
       </c>
       <c r="C39">
-        <v>0.00817786853885983</v>
+        <v>0.08313711475745153</v>
       </c>
       <c r="D39">
-        <v>0.06077510536043689</v>
+        <v>-0.01054074781200126</v>
       </c>
       <c r="E39">
-        <v>0.01500692876902919</v>
+        <v>-0.004071944429744671</v>
       </c>
       <c r="F39">
-        <v>-0.04872609271551892</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04486966987255505</v>
+      </c>
+      <c r="G39">
+        <v>-0.002129465103352459</v>
+      </c>
+      <c r="H39">
+        <v>-0.02351423067469439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02057385708697058</v>
+        <v>-0.0191055463745024</v>
       </c>
       <c r="C40">
-        <v>-0.003181228618925921</v>
+        <v>0.02943199023521147</v>
       </c>
       <c r="D40">
-        <v>0.03715373049226264</v>
+        <v>-0.01067975858800766</v>
       </c>
       <c r="E40">
-        <v>0.01328080363789714</v>
+        <v>-0.0004575007687400916</v>
       </c>
       <c r="F40">
-        <v>-0.01199597367162476</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03629361578347017</v>
+      </c>
+      <c r="G40">
+        <v>-0.001387797040007732</v>
+      </c>
+      <c r="H40">
+        <v>-0.02049579244574933</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006844097368970603</v>
+        <v>-0.01026773846787033</v>
       </c>
       <c r="C41">
-        <v>-0.001461312351946125</v>
+        <v>-0.007681765102818866</v>
       </c>
       <c r="D41">
-        <v>-0.01394764747145577</v>
+        <v>-0.002666416819402485</v>
       </c>
       <c r="E41">
-        <v>0.0127495196151235</v>
+        <v>-0.004938635570086457</v>
       </c>
       <c r="F41">
-        <v>0.0004902902282122688</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.005301858092344432</v>
+      </c>
+      <c r="G41">
+        <v>0.004065184609554391</v>
+      </c>
+      <c r="H41">
+        <v>-0.01003607090299312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2226917622483438</v>
+        <v>-0.04910067684430536</v>
       </c>
       <c r="C42">
-        <v>-0.150619099611104</v>
+        <v>0.1043262799017572</v>
       </c>
       <c r="D42">
-        <v>0.2722940628359157</v>
+        <v>-0.1168484307829559</v>
       </c>
       <c r="E42">
-        <v>0.5754711219925173</v>
+        <v>0.1194315468636911</v>
       </c>
       <c r="F42">
-        <v>0.6722618694605357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.4799292623739868</v>
+      </c>
+      <c r="G42">
+        <v>-0.3864203492612665</v>
+      </c>
+      <c r="H42">
+        <v>-0.7427894606633791</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01417405656264555</v>
+        <v>-0.02228727117078437</v>
       </c>
       <c r="C43">
-        <v>-0.00467700376582155</v>
+        <v>0.001258487066025646</v>
       </c>
       <c r="D43">
-        <v>-0.006892988937361694</v>
+        <v>-0.002234871644661191</v>
       </c>
       <c r="E43">
-        <v>0.01833765258141345</v>
+        <v>-0.001456722143809224</v>
       </c>
       <c r="F43">
-        <v>-0.009890410911651869</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01393263719198305</v>
+      </c>
+      <c r="G43">
+        <v>0.0002481634864559941</v>
+      </c>
+      <c r="H43">
+        <v>-0.01543275785303913</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.007219780410547777</v>
+        <v>-0.007860245687433175</v>
       </c>
       <c r="C44">
-        <v>0.01166749507265328</v>
+        <v>0.04678633574429272</v>
       </c>
       <c r="D44">
-        <v>0.01945050048208442</v>
+        <v>-0.005665063010250024</v>
       </c>
       <c r="E44">
-        <v>0.03771467811352438</v>
+        <v>0.009715798764356427</v>
       </c>
       <c r="F44">
-        <v>-0.06497121990748025</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.04098929320132694</v>
+      </c>
+      <c r="G44">
+        <v>0.01478461851367836</v>
+      </c>
+      <c r="H44">
+        <v>-0.0308432486482912</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01166523190334189</v>
+        <v>0.001580503410727426</v>
       </c>
       <c r="C46">
-        <v>0.001932396318690342</v>
+        <v>0.009262166406585552</v>
       </c>
       <c r="D46">
-        <v>0.03629883778280041</v>
+        <v>-0.01119376883559072</v>
       </c>
       <c r="E46">
-        <v>0.01211541781641641</v>
+        <v>0.001484969431151414</v>
       </c>
       <c r="F46">
-        <v>-0.07150055461333214</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.0113665614723866</v>
+      </c>
+      <c r="G46">
+        <v>0.01679132652932945</v>
+      </c>
+      <c r="H46">
+        <v>0.000511544605384231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.066398609182118</v>
+        <v>-0.05622365713080301</v>
       </c>
       <c r="C47">
-        <v>-0.005370208336944249</v>
+        <v>0.05422646729518871</v>
       </c>
       <c r="D47">
-        <v>0.01859077911823299</v>
+        <v>0.006945890391763056</v>
       </c>
       <c r="E47">
-        <v>-0.02879445033962801</v>
+        <v>-0.006602229009520964</v>
       </c>
       <c r="F47">
-        <v>-0.002487065133530817</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03684959850741449</v>
+      </c>
+      <c r="G47">
+        <v>0.02626491559446163</v>
+      </c>
+      <c r="H47">
+        <v>0.01015505461875451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01958044103547319</v>
+        <v>-0.00902854108937769</v>
       </c>
       <c r="C48">
-        <v>0.004324063953519654</v>
+        <v>0.00453819060570832</v>
       </c>
       <c r="D48">
-        <v>0.006796949645063291</v>
+        <v>-0.0004447503470032419</v>
       </c>
       <c r="E48">
-        <v>0.008342477036211099</v>
+        <v>-0.001106029044305757</v>
       </c>
       <c r="F48">
-        <v>-0.02636219373228157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0007433808134471695</v>
+      </c>
+      <c r="G48">
+        <v>0.01626968253039332</v>
+      </c>
+      <c r="H48">
+        <v>-0.005810751979478165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07675389889390531</v>
+        <v>-0.05845400736118551</v>
       </c>
       <c r="C50">
-        <v>0.02277401016138601</v>
+        <v>0.05404768013042356</v>
       </c>
       <c r="D50">
-        <v>0.04050803520345688</v>
+        <v>0.005626407805634562</v>
       </c>
       <c r="E50">
-        <v>-0.007906643612524435</v>
+        <v>-0.008320826710304775</v>
       </c>
       <c r="F50">
-        <v>-0.02962399420246285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03121600004085106</v>
+      </c>
+      <c r="G50">
+        <v>0.05071076355784875</v>
+      </c>
+      <c r="H50">
+        <v>-0.004784631849412645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005649011564502549</v>
+        <v>-0.005683411016274311</v>
       </c>
       <c r="C51">
-        <v>0.007572010571499629</v>
+        <v>0.02174162763793661</v>
       </c>
       <c r="D51">
-        <v>-0.01551564312568397</v>
+        <v>-0.007958851979449391</v>
       </c>
       <c r="E51">
-        <v>0.0440395801759693</v>
+        <v>-0.003865567361031202</v>
       </c>
       <c r="F51">
-        <v>-0.05882404733330295</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.04271317262000191</v>
+      </c>
+      <c r="G51">
+        <v>0.01666267218535659</v>
+      </c>
+      <c r="H51">
+        <v>-0.02938496450488638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09984676717573274</v>
+        <v>-0.08162155936288511</v>
       </c>
       <c r="C53">
-        <v>0.005506340049220443</v>
+        <v>0.08032683449869578</v>
       </c>
       <c r="D53">
-        <v>0.04885934671334202</v>
+        <v>0.008294771361236807</v>
       </c>
       <c r="E53">
-        <v>-0.05900430459571104</v>
+        <v>-0.03076642452829148</v>
       </c>
       <c r="F53">
-        <v>0.002501598240614895</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05762249340644754</v>
+      </c>
+      <c r="G53">
+        <v>0.03183665168970871</v>
+      </c>
+      <c r="H53">
+        <v>0.01263204933318396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0233381432356384</v>
+        <v>-0.01994584229394548</v>
       </c>
       <c r="C54">
-        <v>0.008676172211768626</v>
+        <v>-0.001653828189232359</v>
       </c>
       <c r="D54">
-        <v>-0.002460088446877898</v>
+        <v>0.005215238287017584</v>
       </c>
       <c r="E54">
-        <v>-0.01093050754327532</v>
+        <v>0.002083067643797433</v>
       </c>
       <c r="F54">
-        <v>-0.03575524339693674</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01268446972633417</v>
+      </c>
+      <c r="G54">
+        <v>0.0225335972209962</v>
+      </c>
+      <c r="H54">
+        <v>-0.002025528585093199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07354936769201774</v>
+        <v>-0.05299272822120665</v>
       </c>
       <c r="C55">
-        <v>-0.0007289886744539284</v>
+        <v>0.06795480306907534</v>
       </c>
       <c r="D55">
-        <v>0.06429930369301856</v>
+        <v>0.005986313005336042</v>
       </c>
       <c r="E55">
-        <v>-0.03820723170758741</v>
+        <v>-0.02006700521032617</v>
       </c>
       <c r="F55">
-        <v>0.006834173866615838</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05786358651110891</v>
+      </c>
+      <c r="G55">
+        <v>0.02271794898589635</v>
+      </c>
+      <c r="H55">
+        <v>0.01425139010980515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1413768424720655</v>
+        <v>-0.1182272601723928</v>
       </c>
       <c r="C56">
-        <v>-0.003027965610205721</v>
+        <v>0.1131828012257612</v>
       </c>
       <c r="D56">
-        <v>0.06471133319055529</v>
+        <v>0.01678392251826133</v>
       </c>
       <c r="E56">
-        <v>-0.08662666033153804</v>
+        <v>-0.03189028399180414</v>
       </c>
       <c r="F56">
-        <v>0.03371159686765519</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09569864444378515</v>
+      </c>
+      <c r="G56">
+        <v>0.02878921264252504</v>
+      </c>
+      <c r="H56">
+        <v>0.03606999048687065</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03295433363514857</v>
+        <v>-0.01566877969934305</v>
       </c>
       <c r="C57">
-        <v>-0.008846027963129966</v>
+        <v>0.01727533357512971</v>
       </c>
       <c r="D57">
-        <v>0.01950690403569037</v>
+        <v>-0.02332371998017297</v>
       </c>
       <c r="E57">
-        <v>0.04386383988066327</v>
+        <v>0.03005668811375538</v>
       </c>
       <c r="F57">
-        <v>-0.02955759172862179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03637565351876676</v>
+      </c>
+      <c r="G57">
+        <v>0.01289554076338557</v>
+      </c>
+      <c r="H57">
+        <v>-0.01855902252453407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1965275800638036</v>
+        <v>-0.07352643304553638</v>
       </c>
       <c r="C58">
-        <v>-0.1365325665802628</v>
+        <v>0.1446653001687102</v>
       </c>
       <c r="D58">
-        <v>0.1857738302254407</v>
+        <v>-0.01572844821093258</v>
       </c>
       <c r="E58">
-        <v>0.4448231139081034</v>
+        <v>0.9626310665207083</v>
       </c>
       <c r="F58">
-        <v>-0.5538561652689997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.02389127932917841</v>
+      </c>
+      <c r="G58">
+        <v>0.09574043382054007</v>
+      </c>
+      <c r="H58">
+        <v>0.1136585345255481</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.09155894744388586</v>
+        <v>-0.1824789328125075</v>
       </c>
       <c r="C59">
-        <v>-0.03130098790435121</v>
+        <v>-0.1911624985066657</v>
       </c>
       <c r="D59">
-        <v>-0.1905077642841769</v>
+        <v>0.02190273966852768</v>
       </c>
       <c r="E59">
-        <v>0.05827770958609918</v>
+        <v>0.01742618483878451</v>
       </c>
       <c r="F59">
-        <v>-0.03078412499364497</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.0313395680057989</v>
+      </c>
+      <c r="G59">
+        <v>0.009127812444027191</v>
+      </c>
+      <c r="H59">
+        <v>-0.01959091137210968</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.193014134621056</v>
+        <v>-0.2909251386869438</v>
       </c>
       <c r="C60">
-        <v>-0.0441524311798541</v>
+        <v>0.1280120132018752</v>
       </c>
       <c r="D60">
-        <v>-0.01783391283560693</v>
+        <v>0.006317221527090415</v>
       </c>
       <c r="E60">
-        <v>0.07801601872657038</v>
+        <v>-0.06642351108682217</v>
       </c>
       <c r="F60">
-        <v>-0.07577967240157502</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3710093456967483</v>
+      </c>
+      <c r="G60">
+        <v>-0.1543173924435517</v>
+      </c>
+      <c r="H60">
+        <v>-0.09005465730160202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02341860427550803</v>
+        <v>-0.01883330745806161</v>
       </c>
       <c r="C61">
-        <v>0.002135751993983943</v>
+        <v>0.06608214290160479</v>
       </c>
       <c r="D61">
-        <v>0.04845569076853266</v>
+        <v>-0.003515378727028901</v>
       </c>
       <c r="E61">
-        <v>0.007717202304077923</v>
+        <v>-0.007124009260823292</v>
       </c>
       <c r="F61">
-        <v>-0.02351156720326687</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03725734783295973</v>
+      </c>
+      <c r="G61">
+        <v>0.003709513370462601</v>
+      </c>
+      <c r="H61">
+        <v>-0.01364181029392741</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01283419237754965</v>
+        <v>-0.00796767817495966</v>
       </c>
       <c r="C63">
-        <v>0.006242608220053702</v>
+        <v>0.02776681482018471</v>
       </c>
       <c r="D63">
-        <v>0.0223055612233298</v>
+        <v>-0.007136942157513462</v>
       </c>
       <c r="E63">
-        <v>0.0005071825005809457</v>
+        <v>-0.01383044099570405</v>
       </c>
       <c r="F63">
-        <v>-0.01255100718931174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.006647520114565278</v>
+      </c>
+      <c r="G63">
+        <v>0.02007870916536006</v>
+      </c>
+      <c r="H63">
+        <v>-0.002071275786332503</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04123478973099907</v>
+        <v>-0.03720262686028594</v>
       </c>
       <c r="C64">
-        <v>0.001394802112786062</v>
+        <v>0.03918149149772226</v>
       </c>
       <c r="D64">
-        <v>0.03109049866351622</v>
+        <v>-0.002679211439736142</v>
       </c>
       <c r="E64">
-        <v>0.004386437800595218</v>
+        <v>-0.01717944581298579</v>
       </c>
       <c r="F64">
-        <v>-0.02199031259064059</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.005256938839383284</v>
+      </c>
+      <c r="G64">
+        <v>0.001047443896577152</v>
+      </c>
+      <c r="H64">
+        <v>-0.02416438733366448</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05479678338161405</v>
+        <v>-0.06048045980712458</v>
       </c>
       <c r="C65">
-        <v>0.005624342306819844</v>
+        <v>0.08130000698390728</v>
       </c>
       <c r="D65">
-        <v>0.04495778022421857</v>
+        <v>-0.01288762217887116</v>
       </c>
       <c r="E65">
-        <v>-0.001563365600940569</v>
+        <v>-0.01696912203417821</v>
       </c>
       <c r="F65">
-        <v>-0.03483537878549452</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.02844122935139776</v>
+      </c>
+      <c r="G65">
+        <v>0.006234528269361613</v>
+      </c>
+      <c r="H65">
+        <v>0.008839565636265659</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0395506422480728</v>
+        <v>-0.02759899069919962</v>
       </c>
       <c r="C66">
-        <v>-0.01008941828994383</v>
+        <v>0.1230344888169675</v>
       </c>
       <c r="D66">
-        <v>0.07056763681757933</v>
+        <v>-0.008505906271262817</v>
       </c>
       <c r="E66">
-        <v>-0.02408564317206042</v>
+        <v>-0.008609750703133809</v>
       </c>
       <c r="F66">
-        <v>-0.07015312550094123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06043411664753286</v>
+      </c>
+      <c r="G66">
+        <v>-0.006449949544786763</v>
+      </c>
+      <c r="H66">
+        <v>0.003826070927334258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02830245481286328</v>
+        <v>-0.04615039806533305</v>
       </c>
       <c r="C67">
-        <v>-0.007123511312968783</v>
+        <v>0.02607477285690992</v>
       </c>
       <c r="D67">
-        <v>-0.004729093060532254</v>
+        <v>0.008424476849754888</v>
       </c>
       <c r="E67">
-        <v>0.01313558276498434</v>
+        <v>-0.009444650599914292</v>
       </c>
       <c r="F67">
-        <v>-0.03001052819116612</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01867859454200265</v>
+      </c>
+      <c r="G67">
+        <v>0.01528267703331558</v>
+      </c>
+      <c r="H67">
+        <v>0.0001174000819480822</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.09748822552543952</v>
+        <v>-0.1740262234046727</v>
       </c>
       <c r="C68">
-        <v>-0.03247550198782876</v>
+        <v>-0.2331132055918734</v>
       </c>
       <c r="D68">
-        <v>-0.2187356019093593</v>
+        <v>0.003114313753210066</v>
       </c>
       <c r="E68">
-        <v>0.05668988751312578</v>
+        <v>0.02944152795455134</v>
       </c>
       <c r="F68">
-        <v>-0.001677110351427278</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.004392237888349373</v>
+      </c>
+      <c r="G68">
+        <v>0.01314590687028006</v>
+      </c>
+      <c r="H68">
+        <v>-0.02779506510157344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05255260326547349</v>
+        <v>-0.05739429584102744</v>
       </c>
       <c r="C69">
-        <v>-0.003804236603774578</v>
+        <v>0.05307258535241643</v>
       </c>
       <c r="D69">
-        <v>0.02707674531593711</v>
+        <v>0.01136221089445933</v>
       </c>
       <c r="E69">
-        <v>-0.0299125574828317</v>
+        <v>-0.02756733829499787</v>
       </c>
       <c r="F69">
-        <v>-0.01377360203819043</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.01056316280524022</v>
+      </c>
+      <c r="G69">
+        <v>0.01674714467017651</v>
+      </c>
+      <c r="H69">
+        <v>0.007610725385314694</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08959114841489563</v>
+        <v>-0.1565818038311561</v>
       </c>
       <c r="C71">
-        <v>-0.01821588708895779</v>
+        <v>-0.2006615048863373</v>
       </c>
       <c r="D71">
-        <v>-0.2138584101988529</v>
+        <v>0.00971352334918719</v>
       </c>
       <c r="E71">
-        <v>0.09773142903058075</v>
+        <v>0.04206321260017279</v>
       </c>
       <c r="F71">
-        <v>0.03545168725313751</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.01202557531340333</v>
+      </c>
+      <c r="G71">
+        <v>0.02231507035573948</v>
+      </c>
+      <c r="H71">
+        <v>-0.05164958158702966</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1013918609773508</v>
+        <v>-0.07234365387834796</v>
       </c>
       <c r="C72">
-        <v>-0.007497505587189305</v>
+        <v>0.09358534755984195</v>
       </c>
       <c r="D72">
-        <v>0.1105095342528424</v>
+        <v>0.01352804195503291</v>
       </c>
       <c r="E72">
-        <v>-0.005076431504233839</v>
+        <v>-0.03083781178251057</v>
       </c>
       <c r="F72">
-        <v>-0.1549403734612331</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.04865516222813222</v>
+      </c>
+      <c r="G72">
+        <v>-0.005707819278307346</v>
+      </c>
+      <c r="H72">
+        <v>0.01881090193252566</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2351468873370583</v>
+        <v>-0.3619640706439786</v>
       </c>
       <c r="C73">
-        <v>-0.1016331758108486</v>
+        <v>0.1959844481343587</v>
       </c>
       <c r="D73">
-        <v>0.01695492313956934</v>
+        <v>0.001290040430195536</v>
       </c>
       <c r="E73">
-        <v>0.1382509885178402</v>
+        <v>-0.05439837575130935</v>
       </c>
       <c r="F73">
-        <v>-0.07511775412046479</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.4170075313936417</v>
+      </c>
+      <c r="G73">
+        <v>-0.2134243677725079</v>
+      </c>
+      <c r="H73">
+        <v>-0.135424918121594</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.13224221768027</v>
+        <v>-0.1053060409254847</v>
       </c>
       <c r="C74">
-        <v>-0.01047992706633194</v>
+        <v>0.1204262981850769</v>
       </c>
       <c r="D74">
-        <v>0.06200816208233789</v>
+        <v>0.01477074222540659</v>
       </c>
       <c r="E74">
-        <v>-0.08247621860189214</v>
+        <v>-0.03697410180437578</v>
       </c>
       <c r="F74">
-        <v>0.02681817369654413</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07164821214471931</v>
+      </c>
+      <c r="G74">
+        <v>0.0360621515032701</v>
+      </c>
+      <c r="H74">
+        <v>0.01923149541493942</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2625902451956987</v>
+        <v>-0.2294398508122231</v>
       </c>
       <c r="C75">
-        <v>-0.02989449751405284</v>
+        <v>0.1810289203592371</v>
       </c>
       <c r="D75">
-        <v>0.08762254276731979</v>
+        <v>0.03613067905578967</v>
       </c>
       <c r="E75">
-        <v>-0.1782223234090574</v>
+        <v>-0.0393253380427378</v>
       </c>
       <c r="F75">
-        <v>0.008156588560788434</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1981666593098552</v>
+      </c>
+      <c r="G75">
+        <v>0.04896976120583914</v>
+      </c>
+      <c r="H75">
+        <v>0.1016044521319899</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2713025837885243</v>
+        <v>-0.1485100574270523</v>
       </c>
       <c r="C76">
-        <v>-0.008831806664742288</v>
+        <v>0.1484405203388482</v>
       </c>
       <c r="D76">
-        <v>0.108349528337416</v>
+        <v>0.02952476215476388</v>
       </c>
       <c r="E76">
-        <v>-0.2346173083296084</v>
+        <v>-0.06230181722138727</v>
       </c>
       <c r="F76">
-        <v>0.05019989879266221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1685242314709572</v>
+      </c>
+      <c r="G76">
+        <v>0.0648315525543031</v>
+      </c>
+      <c r="H76">
+        <v>0.07948911145023647</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07792373682863107</v>
+        <v>-0.04367501345328687</v>
       </c>
       <c r="C77">
-        <v>-0.01185554834676937</v>
+        <v>0.07265278486294208</v>
       </c>
       <c r="D77">
-        <v>0.07741298490164703</v>
+        <v>-0.01188783592535024</v>
       </c>
       <c r="E77">
-        <v>0.1132714682548438</v>
+        <v>0.03102921958893839</v>
       </c>
       <c r="F77">
-        <v>-0.02115510939221461</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01666827913376897</v>
+      </c>
+      <c r="G77">
+        <v>0.02283438324845809</v>
+      </c>
+      <c r="H77">
+        <v>-0.0332995192842804</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03071575898767998</v>
+        <v>-0.02991334895978317</v>
       </c>
       <c r="C78">
-        <v>0.004041307143841869</v>
+        <v>0.06000609824675038</v>
       </c>
       <c r="D78">
-        <v>0.05775520315084966</v>
+        <v>-0.003962780795034664</v>
       </c>
       <c r="E78">
-        <v>0.02629382913821479</v>
+        <v>0.004965041508215871</v>
       </c>
       <c r="F78">
-        <v>-0.0658263507356201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04884327269406818</v>
+      </c>
+      <c r="G78">
+        <v>0.004872078605257926</v>
+      </c>
+      <c r="H78">
+        <v>-0.01049778836448529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2332790502857293</v>
+        <v>-0.06361010348204353</v>
       </c>
       <c r="C80">
-        <v>0.9450703100128459</v>
+        <v>0.08648714580015264</v>
       </c>
       <c r="D80">
-        <v>-0.03817230405224266</v>
+        <v>-0.008778394901874244</v>
       </c>
       <c r="E80">
-        <v>0.1466467369990241</v>
+        <v>-0.06512864307350687</v>
       </c>
       <c r="F80">
-        <v>0.0235889803557151</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.0565806947034438</v>
+      </c>
+      <c r="G80">
+        <v>0.8374027232738277</v>
+      </c>
+      <c r="H80">
+        <v>-0.4541449874114254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.205846396916865</v>
+        <v>-0.1395583743287152</v>
       </c>
       <c r="C81">
-        <v>-0.01211263360595784</v>
+        <v>0.102784538155211</v>
       </c>
       <c r="D81">
-        <v>0.05449870938324038</v>
+        <v>0.02221384891766221</v>
       </c>
       <c r="E81">
-        <v>-0.1468297117333633</v>
+        <v>-0.0234981765598433</v>
       </c>
       <c r="F81">
-        <v>-0.01426416329057564</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1283110037221315</v>
+      </c>
+      <c r="G81">
+        <v>0.05123965447405673</v>
+      </c>
+      <c r="H81">
+        <v>0.05696066317684123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.02087153736427017</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.01474504000106949</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002017420977068103</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.0143228706213746</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.01402204805480121</v>
+      </c>
+      <c r="G82">
+        <v>-0.005398464586629318</v>
+      </c>
+      <c r="H82">
+        <v>0.002602248566656242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02859739266581874</v>
+        <v>-0.02224043810496859</v>
       </c>
       <c r="C83">
-        <v>-0.006929345681441103</v>
+        <v>0.02102178845873257</v>
       </c>
       <c r="D83">
-        <v>0.01322495938733249</v>
+        <v>-0.00440897263937771</v>
       </c>
       <c r="E83">
-        <v>0.04144753321286218</v>
+        <v>0.01652729919695019</v>
       </c>
       <c r="F83">
-        <v>-0.03025521629787349</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.03692878828957204</v>
+      </c>
+      <c r="G83">
+        <v>0.009762452770044715</v>
+      </c>
+      <c r="H83">
+        <v>-0.01930962809718619</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2540465479159955</v>
+        <v>-0.2238648205837371</v>
       </c>
       <c r="C85">
-        <v>-0.03749577427245983</v>
+        <v>0.1937741877080702</v>
       </c>
       <c r="D85">
-        <v>0.1136929073400047</v>
+        <v>0.02508602539180153</v>
       </c>
       <c r="E85">
-        <v>-0.2025865396519649</v>
+        <v>-0.0721204551239293</v>
       </c>
       <c r="F85">
-        <v>0.02561915886556967</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1941664949343027</v>
+      </c>
+      <c r="G85">
+        <v>0.007128434580433575</v>
+      </c>
+      <c r="H85">
+        <v>0.1187425135438532</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0007410117114322879</v>
+        <v>-0.008733985113842895</v>
       </c>
       <c r="C86">
-        <v>0.009129527204658561</v>
+        <v>0.03150595954648664</v>
       </c>
       <c r="D86">
-        <v>0.04462639533259293</v>
+        <v>-0.008767578282339114</v>
       </c>
       <c r="E86">
-        <v>0.0367910662019074</v>
+        <v>0.008488066439075268</v>
       </c>
       <c r="F86">
-        <v>-0.07018684084600212</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.04111179500592501</v>
+      </c>
+      <c r="G86">
+        <v>0.02452149457042314</v>
+      </c>
+      <c r="H86">
+        <v>-0.05365882735412355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0277631534711192</v>
+        <v>-0.002998167508561887</v>
       </c>
       <c r="C87">
-        <v>0.005759313482646054</v>
+        <v>0.03749673556956794</v>
       </c>
       <c r="D87">
-        <v>0.04142577321097664</v>
+        <v>-0.01045545884008886</v>
       </c>
       <c r="E87">
-        <v>0.05544817762114483</v>
+        <v>0.0416094800336295</v>
       </c>
       <c r="F87">
-        <v>-0.07742149098264607</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.06107307557270811</v>
+      </c>
+      <c r="G87">
+        <v>0.01823928539190003</v>
+      </c>
+      <c r="H87">
+        <v>-0.03822586789815739</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0414601908594943</v>
+        <v>-0.06262019507323345</v>
       </c>
       <c r="C88">
-        <v>-0.007882084201523412</v>
+        <v>0.04203101373662989</v>
       </c>
       <c r="D88">
-        <v>-0.003519968708547352</v>
+        <v>-0.01874011007482305</v>
       </c>
       <c r="E88">
-        <v>-0.001187520321375169</v>
+        <v>-0.01070972797063313</v>
       </c>
       <c r="F88">
-        <v>0.008170351599743893</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.03364679642162739</v>
+      </c>
+      <c r="G88">
+        <v>0.006415149886272825</v>
+      </c>
+      <c r="H88">
+        <v>-0.003859945089752152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1592598201464409</v>
+        <v>-0.2725303224871903</v>
       </c>
       <c r="C89">
-        <v>-0.06375481340385127</v>
+        <v>-0.3388329847493409</v>
       </c>
       <c r="D89">
-        <v>-0.3654597671209743</v>
+        <v>0.01600985222683464</v>
       </c>
       <c r="E89">
-        <v>0.03783257471991106</v>
+        <v>0.01651937147756737</v>
       </c>
       <c r="F89">
-        <v>-0.03349405726727773</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.001466878700584169</v>
+      </c>
+      <c r="G89">
+        <v>0.008772648097841581</v>
+      </c>
+      <c r="H89">
+        <v>-0.002683809227751026</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1043630205216864</v>
+        <v>-0.2234312699339694</v>
       </c>
       <c r="C90">
-        <v>-0.05969127087403421</v>
+        <v>-0.313366424781432</v>
       </c>
       <c r="D90">
-        <v>-0.3368846900152561</v>
+        <v>0.01626431768637381</v>
       </c>
       <c r="E90">
-        <v>0.03884749180548871</v>
+        <v>0.03019215945801564</v>
       </c>
       <c r="F90">
-        <v>0.02151894264221189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.0485403277410402</v>
+      </c>
+      <c r="G90">
+        <v>0.002812769619539414</v>
+      </c>
+      <c r="H90">
+        <v>0.004204940246938972</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2948736334951143</v>
+        <v>-0.1984628709487414</v>
       </c>
       <c r="C91">
-        <v>-0.04004440000072877</v>
+        <v>0.1420319587773117</v>
       </c>
       <c r="D91">
-        <v>0.123360171261428</v>
+        <v>0.03231967055000292</v>
       </c>
       <c r="E91">
-        <v>-0.2256098494539445</v>
+        <v>-0.0552032837573098</v>
       </c>
       <c r="F91">
-        <v>0.1014858615374358</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2035788397009385</v>
+      </c>
+      <c r="G91">
+        <v>0.04586424632880295</v>
+      </c>
+      <c r="H91">
+        <v>0.08614336539268666</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2261878048611977</v>
+        <v>-0.2477522425877323</v>
       </c>
       <c r="C92">
-        <v>-0.06946083766494016</v>
+        <v>-0.239871689994387</v>
       </c>
       <c r="D92">
-        <v>-0.3693175867548033</v>
+        <v>0.05921254767273744</v>
       </c>
       <c r="E92">
-        <v>-0.05646509781071795</v>
+        <v>0.04347027663455474</v>
       </c>
       <c r="F92">
-        <v>0.01204196949224806</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1138072986594391</v>
+      </c>
+      <c r="G92">
+        <v>0.0773888377504237</v>
+      </c>
+      <c r="H92">
+        <v>0.0478756747682836</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1512494956405717</v>
+        <v>-0.2568808512619661</v>
       </c>
       <c r="C93">
-        <v>-0.08526434539272189</v>
+        <v>-0.2983778728250973</v>
       </c>
       <c r="D93">
-        <v>-0.3910825096127343</v>
+        <v>0.02451730489024498</v>
       </c>
       <c r="E93">
-        <v>0.07377246080201821</v>
+        <v>0.03343147919905351</v>
       </c>
       <c r="F93">
-        <v>0.06854738309168441</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01005291838632954</v>
+      </c>
+      <c r="G93">
+        <v>-0.01741442043166248</v>
+      </c>
+      <c r="H93">
+        <v>-0.03364097270445868</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3208083900862379</v>
+        <v>-0.261268803734526</v>
       </c>
       <c r="C94">
-        <v>-0.07003073189594844</v>
+        <v>0.1808115080980603</v>
       </c>
       <c r="D94">
-        <v>0.08367213229907741</v>
+        <v>0.02156255873519666</v>
       </c>
       <c r="E94">
-        <v>-0.2473067346059221</v>
+        <v>-0.06198035817716037</v>
       </c>
       <c r="F94">
-        <v>-0.01888601202924738</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3106990352025028</v>
+      </c>
+      <c r="G94">
+        <v>0.03689328675793381</v>
+      </c>
+      <c r="H94">
+        <v>0.3135088062120393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.04860467056693941</v>
+        <v>-0.07049175388791946</v>
       </c>
       <c r="C95">
-        <v>-0.07405001151569454</v>
+        <v>0.1190497885600105</v>
       </c>
       <c r="D95">
-        <v>0.02001454227114718</v>
+        <v>0.01167951928394187</v>
       </c>
       <c r="E95">
-        <v>-0.03414658206952904</v>
+        <v>0.01809774904348143</v>
       </c>
       <c r="F95">
-        <v>-0.05706963963289688</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.118122850790092</v>
+      </c>
+      <c r="G95">
+        <v>-0.09314369610303821</v>
+      </c>
+      <c r="H95">
+        <v>0.01436797341936268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1914670124756297</v>
+        <v>-0.203057859057772</v>
       </c>
       <c r="C98">
-        <v>-0.06276696790028427</v>
+        <v>0.07780497570561916</v>
       </c>
       <c r="D98">
-        <v>-0.02984932040862294</v>
+        <v>0.02682856105366985</v>
       </c>
       <c r="E98">
-        <v>0.1341623948281438</v>
+        <v>0.00923965043831469</v>
       </c>
       <c r="F98">
-        <v>-0.07497941852181539</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2306543920472183</v>
+      </c>
+      <c r="G98">
+        <v>-0.1169457352930416</v>
+      </c>
+      <c r="H98">
+        <v>-0.1199159333412098</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007839684981074338</v>
+        <v>-0.001741548775928237</v>
       </c>
       <c r="C101">
-        <v>0.004205586521450735</v>
+        <v>0.01791296037918942</v>
       </c>
       <c r="D101">
-        <v>0.02793459832467076</v>
+        <v>-0.007503420407688062</v>
       </c>
       <c r="E101">
-        <v>0.07153901482382992</v>
+        <v>0.0308695637233408</v>
       </c>
       <c r="F101">
-        <v>-0.1886874915191121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02744345654683631</v>
+      </c>
+      <c r="G101">
+        <v>0.03394721898404345</v>
+      </c>
+      <c r="H101">
+        <v>0.01700207905912166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1368791542536094</v>
+        <v>-0.1111430038976484</v>
       </c>
       <c r="C102">
-        <v>-0.01517739112597445</v>
+        <v>0.08992951772100317</v>
       </c>
       <c r="D102">
-        <v>0.04883059901171932</v>
+        <v>0.003986895260515848</v>
       </c>
       <c r="E102">
-        <v>-0.1000400259760964</v>
+        <v>-0.04272553995457906</v>
       </c>
       <c r="F102">
-        <v>0.04660447347220933</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.07969710367591411</v>
+      </c>
+      <c r="G102">
+        <v>0.01029542925098005</v>
+      </c>
+      <c r="H102">
+        <v>0.03612610154455122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04237634472927103</v>
+        <v>-0.008653902756159175</v>
       </c>
       <c r="C103">
-        <v>0.01372049210643533</v>
+        <v>0.008809510961084021</v>
       </c>
       <c r="D103">
-        <v>0.02074940081315556</v>
+        <v>0.0002487720677725991</v>
       </c>
       <c r="E103">
-        <v>-0.01762965598275803</v>
+        <v>0.0009465807865495538</v>
       </c>
       <c r="F103">
-        <v>-0.007631094709171659</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01309110817808602</v>
+      </c>
+      <c r="G103">
+        <v>0.01892196795482733</v>
+      </c>
+      <c r="H103">
+        <v>-0.003995662189725389</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.07533046261921329</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.03948861725670656</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9831814676017495</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03714184287136901</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.00766610378895093</v>
+      </c>
+      <c r="G104">
+        <v>0.04170223180275141</v>
+      </c>
+      <c r="H104">
+        <v>0.1138520509396264</v>
       </c>
     </row>
   </sheetData>
